--- a/dataset/kitti_odom/other_experiments.xlsx
+++ b/dataset/kitti_odom/other_experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A\Astrophil\loboratory\program\eval_odom_app\dataset\kitti_odom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A63172-A392-4335-80B6-B4D38FBF6E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C1E633-92F3-4D3B-B073-8D3FECDCE9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39225" yWindow="3360" windowWidth="17730" windowHeight="11190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,6 +214,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,22 +505,23 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" style="2" customWidth="1"/>
+    <col min="6" max="9" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.109375" style="2" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -562,7 +566,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -606,7 +610,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -648,7 +652,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -690,7 +694,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,7 +736,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,7 +778,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -818,7 +822,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -860,7 +864,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -902,7 +906,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -944,7 +948,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
@@ -986,7 +990,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1030,91 +1034,91 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>3.39</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>1.31</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>1.96</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>4.93</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>2.38</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>1.65</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>4.54</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>2.61</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="3">
         <v>2.19</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3">
         <v>4.58</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="3">
         <v>2.87</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>93.04</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="3">
         <v>85.9</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <v>70.37</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>10.210000000000001</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>2.97</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <v>40.56</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <v>12.56</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>21.01</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="3">
         <v>56.15</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3">
         <v>15.02</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>20.190000000000001</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="3">
         <v>38.909999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1156,14 +1160,14 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="3">
         <v>0.129</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="3">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E16" s="3">
@@ -1198,135 +1202,135 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>10.53</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>61.36</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <v>18.71</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>30.21</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>34.049999999999997</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <v>13.16</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <v>17.690000000000001</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>10.8</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="3">
         <v>13.85</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="3">
         <v>18.059999999999999</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <v>26.1</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="3">
         <v>23.14</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>2.73</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>7.68</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>1.19</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <v>2.21</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>1.78</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <v>3.65</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <v>1.93</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>4.67</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="3">
         <v>2.52</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="3">
         <v>1.25</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3">
         <v>3.26</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="3">
         <v>2.99</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>79.239999999999995</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>494.6</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <v>70.13</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>52.36</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>38.33</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <v>66.75</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <v>40.72</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>18.32</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="3">
         <v>61.49</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="3">
         <v>52.62</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="3">
         <v>57.25</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="3">
         <v>93.8</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1372,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1410,135 +1414,135 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>11.43</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>107.57</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>10.34</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="3">
         <v>0.97</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="3">
         <v>1.3</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>9.0399999999999991</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <v>14.56</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="3">
         <v>9.77</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="3">
         <v>11.46</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="3">
         <v>2.57</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="3">
         <v>17.12</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="3">
         <v>0.89</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="3">
         <v>0.26</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="3">
         <v>0.19</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="3">
         <v>0.27</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="3">
         <v>0.26</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="3">
         <v>0.26</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="3">
         <v>0.36</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="3">
         <v>0.26</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="3">
         <v>0.32</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="3">
         <v>0.36</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>40.65</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>502.2</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <v>47.82</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="3">
         <v>0.94</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="3">
         <v>1.3</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>29.95</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>40.82</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="3">
         <v>16.059999999999999</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="3">
         <v>43.09</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="3">
         <v>38.770000000000003</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="3">
         <v>5.42</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24" s="3">
         <v>69.73</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1572,28 +1576,28 @@
       <c r="L25" s="3">
         <v>0.128</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="3">
         <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E26" s="3">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>5.5E-2</v>
       </c>
       <c r="G26" s="3">
@@ -1605,231 +1609,231 @@
       <c r="I26" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="3">
         <v>4.7E-2</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="3">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="3">
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>3.39</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>57.02</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>8.59</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>5.09</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>2.06</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="3">
         <v>3.37</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="3">
         <v>3.24</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>2583.87</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="3">
         <v>3.56</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="3">
         <v>4.93</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>5.96</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="3">
         <v>243.73</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>1.78</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>26.39</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>5.27</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>2.63</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>0.73</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>2.21</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="3">
         <v>1.66</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>10.83</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="3">
         <v>1.77</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>2.56</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>3.52</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="3">
         <v>5.4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="3">
         <v>31.24</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>286.02999999999997</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>220.83</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>3.97</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>2.2200000000000002</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>19.97</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="3">
         <v>10.59</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <v>7730.57</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>24.34</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="3">
         <v>18.72</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>13.87</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="3">
         <v>760.21</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="3">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>2.4E-2</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="3">
         <v>0.04</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="3">
         <v>2.3E-2</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="3">
         <v>0.02</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="3">
         <v>15.145</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="3">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="3">
         <v>5.5E-2</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="3">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="3">
         <v>1.4830000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="3">
         <v>7.8E-2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="3">
         <v>4.9249999999999998</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="3">
         <v>0.22</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="3">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="3">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="3">
         <v>6.3E-2</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="3">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="3">
         <v>0.378</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="3">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="3">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="3">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="3">
         <v>0.55200000000000005</v>
       </c>
     </row>
